--- a/Data/MHV-1_Exp-2/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded Retest Results and Ground Truth.xlsx
+++ b/Data/MHV-1_Exp-2/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded Retest Results and Ground Truth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\MHV-1_Exp-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472C25BA-1586-4DCD-9737-27E73B2F0CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B417DCF-0456-4589-ACB0-A0199D6D5547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2715" windowWidth="21600" windowHeight="9420" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
+    <workbookView xWindow="3525" yWindow="2475" windowWidth="21600" windowHeight="9420" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="72">
   <si>
     <t>N=7</t>
   </si>
@@ -251,9 +251,6 @@
   <si>
     <t>negative</t>
   </si>
-  <si>
-    <t>in the interval?</t>
-  </si>
 </sst>
 </file>
 
@@ -360,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -380,7 +377,6 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,13 +650,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -696,13 +692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -738,13 +734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>593725</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -780,13 +776,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -822,13 +818,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -864,13 +860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -906,13 +902,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1246,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA77264-70DF-B347-B246-8B3A8D5D0E9A}">
-  <dimension ref="A1:AS232"/>
+  <dimension ref="A1:AR232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" topLeftCell="V211" workbookViewId="0">
+      <selection activeCell="AF234" sqref="AF234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1268,27 +1264,27 @@
     <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="2" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" style="2" customWidth="1"/>
-    <col min="29" max="30" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5" style="2" customWidth="1"/>
-    <col min="33" max="33" width="17.5" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="11" style="2"/>
+    <col min="27" max="27" width="7.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="2" customWidth="1"/>
+    <col min="29" max="29" width="8.625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="12.375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.5" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,26 +1309,26 @@
       <c r="AE1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AI1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AN1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1413,30 +1409,27 @@
         <v>38</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AH2" s="2">
         <v>2200</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="AJ2" s="3">
+        <v>10.560573577880859</v>
+      </c>
       <c r="AK2" s="3">
-        <v>10.560573577880859</v>
-      </c>
-      <c r="AL2" s="3">
         <v>11.100494384765625</v>
       </c>
-      <c r="AN2" s="3">
-        <f>AVERAGE(AK2:AL2)</f>
+      <c r="AM2" s="3">
+        <f>AVERAGE(AJ2:AK2)</f>
         <v>10.830533981323242</v>
       </c>
-      <c r="AO2" s="3"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AN2" s="3"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1524,36 +1517,32 @@
       <c r="AE3" s="4">
         <v>4.5225871741952795E-9</v>
       </c>
-      <c r="AF3" s="4" t="b">
-        <f>AND(AE3&gt;AC3,AE3&lt;AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2">
-        <f t="shared" ref="AI3:AI9" si="0">AI2/10</f>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH9" si="0">AH2/10</f>
         <v>220</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AJ3" s="3">
+        <v>14.287646293640137</v>
+      </c>
       <c r="AK3" s="3">
-        <v>14.287646293640137</v>
-      </c>
-      <c r="AL3" s="3">
         <v>14.372989654541016</v>
       </c>
+      <c r="AM3" s="3">
+        <f t="shared" ref="AM3:AM9" si="1">AVERAGE(AJ3:AK3)</f>
+        <v>14.330317974090576</v>
+      </c>
       <c r="AN3" s="3">
-        <f t="shared" ref="AN3:AN9" si="1">AVERAGE(AK3:AL3)</f>
-        <v>14.330317974090576</v>
-      </c>
-      <c r="AO3" s="3">
-        <f>AN3-AN2</f>
+        <f>AM3-AM2</f>
         <v>3.499783992767334</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,45 +1621,41 @@
       <c r="AB4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="4">
         <v>1.2683314729112891E-10</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="4">
         <v>7.1407242550421829E-4</v>
       </c>
       <c r="AE4" s="4">
         <v>9.1642367177313861E-4</v>
       </c>
-      <c r="AF4" s="4" t="b">
-        <f t="shared" ref="AF4:AF67" si="2">AND(AE4&gt;AC4,AE4&lt;AD4)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AJ4" s="3">
+        <v>18.013154983520508</v>
+      </c>
       <c r="AK4" s="3">
-        <v>18.013154983520508</v>
-      </c>
-      <c r="AL4" s="3">
         <v>17.801101684570313</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AM4" s="3">
         <f t="shared" si="1"/>
         <v>17.90712833404541</v>
       </c>
-      <c r="AO4" s="3">
-        <f t="shared" ref="AO4:AO9" si="3">AN4-AN3</f>
+      <c r="AN4" s="3">
+        <f t="shared" ref="AN4:AN9" si="2">AM4-AM3</f>
         <v>3.576810359954834</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1689,10 +1674,10 @@
       <c r="F5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>0.192678163750023</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>0.62599498294337663</v>
       </c>
       <c r="I5" s="2">
@@ -1722,10 +1707,10 @@
       <c r="Q5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="2">
         <v>1.4260850055867851E-3</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="2">
         <v>2.8645240823673172E-3</v>
       </c>
       <c r="T5" s="2">
@@ -1764,36 +1749,32 @@
       <c r="AE5" s="4">
         <v>4.5225871741952216E-9</v>
       </c>
-      <c r="AF5" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AJ5" s="3">
+        <v>21.546590805053711</v>
+      </c>
       <c r="AK5" s="3">
-        <v>21.546590805053711</v>
-      </c>
-      <c r="AL5" s="3">
         <v>21.139509201049805</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AM5" s="3">
         <f t="shared" si="1"/>
         <v>21.343050003051758</v>
       </c>
-      <c r="AO5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN5" s="3">
+        <f t="shared" si="2"/>
         <v>3.4359216690063477</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -1869,36 +1850,32 @@
       <c r="AE6" s="4">
         <v>4.52258717419566E-9</v>
       </c>
-      <c r="AF6" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
         <f t="shared" si="0"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="AJ6" s="3">
+        <v>24.746114730834961</v>
+      </c>
       <c r="AK6" s="3">
-        <v>24.746114730834961</v>
-      </c>
-      <c r="AL6" s="3">
         <v>24.551141738891602</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AM6" s="3">
         <f t="shared" si="1"/>
         <v>24.648628234863281</v>
       </c>
-      <c r="AO6" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN6" s="3">
+        <f t="shared" si="2"/>
         <v>3.3055782318115234</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1956,45 +1933,41 @@
       <c r="AB7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="4">
         <v>5.1614741399471818E-10</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="4">
         <v>8.8943229689424498E-4</v>
       </c>
       <c r="AE7" s="4">
         <v>1.2767330335212374E-3</v>
       </c>
-      <c r="AF7" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AJ7" s="3">
+        <v>28.152793884277344</v>
+      </c>
       <c r="AK7" s="3">
-        <v>28.152793884277344</v>
-      </c>
-      <c r="AL7" s="3">
         <v>27.956268310546875</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AM7" s="3">
         <f t="shared" si="1"/>
         <v>28.054531097412109</v>
       </c>
-      <c r="AO7" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN7" s="3">
+        <f t="shared" si="2"/>
         <v>3.4059028625488281</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -2055,36 +2028,32 @@
       <c r="AE8" s="4">
         <v>2.2639069746438464E-9</v>
       </c>
-      <c r="AF8" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="AJ8" s="3">
+        <v>31.581560134887695</v>
+      </c>
       <c r="AK8" s="3">
-        <v>31.581560134887695</v>
-      </c>
-      <c r="AL8" s="3">
         <v>31.336460113525391</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AM8" s="3">
         <f t="shared" si="1"/>
         <v>31.459010124206543</v>
       </c>
-      <c r="AO8" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN8" s="3">
+        <f t="shared" si="2"/>
         <v>3.4044790267944336</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -2152,36 +2121,32 @@
       <c r="AE9" s="4">
         <v>4.5237142668622079E-9</v>
       </c>
-      <c r="AF9" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AJ9" s="3">
+        <v>35.010597229003906</v>
+      </c>
       <c r="AK9" s="3">
-        <v>35.010597229003906</v>
-      </c>
-      <c r="AL9" s="3">
         <v>35.444339752197266</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AM9" s="3">
         <f t="shared" si="1"/>
         <v>35.227468490600586</v>
       </c>
-      <c r="AO9" s="3">
-        <f t="shared" si="3"/>
+      <c r="AN9" s="3">
+        <f t="shared" si="2"/>
         <v>3.768458366394043</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -2246,18 +2211,14 @@
       <c r="AE10" s="4">
         <v>4.5234015384450272E-9</v>
       </c>
-      <c r="AF10" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -2310,19 +2271,15 @@
       <c r="AE11" s="4">
         <v>1.5097878751916724E-9</v>
       </c>
-      <c r="AF11" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="3">
-        <f>AVERAGE(AO3:AO8)</f>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <f>AVERAGE(AN3:AN8)</f>
         <v>3.4380793571472168</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -2374,15 +2331,11 @@
       <c r="AE12" s="4">
         <v>4.5243786672618354E-9</v>
       </c>
-      <c r="AF12" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -2434,15 +2387,11 @@
       <c r="AE13" s="4">
         <v>4.5234015384459801E-9</v>
       </c>
-      <c r="AF13" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -2494,15 +2443,11 @@
       <c r="AE14" s="4">
         <v>2.2640428774651596E-9</v>
       </c>
-      <c r="AF14" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -2554,15 +2499,11 @@
       <c r="AE15" s="4">
         <v>2.2640428774648382E-9</v>
       </c>
-      <c r="AF15" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>16.627944946289063</v>
       </c>
@@ -2614,22 +2555,18 @@
       <c r="AE16" s="4">
         <v>2.2640044241350543E-9</v>
       </c>
-      <c r="AF16" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -2681,22 +2618,18 @@
       <c r="AE17" s="4">
         <v>1.5097706647795196E-9</v>
       </c>
-      <c r="AF17" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -2745,15 +2678,11 @@
       <c r="AE18" s="4">
         <v>1.5097288756236944E-9</v>
       </c>
-      <c r="AF18" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -2808,15 +2737,11 @@
       <c r="AE19" s="4">
         <v>2.2640970714615604E-9</v>
       </c>
-      <c r="AF19" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -2874,15 +2799,11 @@
       <c r="AE20" s="4">
         <v>4.524378667261938E-9</v>
       </c>
-      <c r="AF20" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -2910,10 +2831,10 @@
       <c r="R21" s="4">
         <v>9.0634479286488466E-10</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="4">
         <v>107.05189023146639</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="4">
         <v>236.73173607365325</v>
       </c>
       <c r="U21" s="4">
@@ -2940,15 +2861,11 @@
       <c r="AE21" s="4">
         <v>4.5237142668615552E-9</v>
       </c>
-      <c r="AF21" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -2976,10 +2893,10 @@
       <c r="R22" s="4">
         <v>6.3910040312231949E-11</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="4">
         <v>92.90897997098854</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="4">
         <v>109.7493359088853</v>
       </c>
       <c r="U22" s="4">
@@ -3006,15 +2923,11 @@
       <c r="AE22" s="4">
         <v>4.5237142668609969E-9</v>
       </c>
-      <c r="AF22" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -3072,15 +2985,11 @@
       <c r="AE23" s="4">
         <v>2.2639069746434444E-9</v>
       </c>
-      <c r="AF23" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -3126,15 +3035,11 @@
       <c r="AE24" s="4">
         <v>4.5234015384463581E-9</v>
       </c>
-      <c r="AF24" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -3153,13 +3058,13 @@
       <c r="Q25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="2">
         <v>2.1626336743837235E-10</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="2">
         <v>92.908980051498119</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="2">
         <v>81.916838434344086</v>
       </c>
       <c r="U25" s="2">
@@ -3189,18 +3094,14 @@
       <c r="AE25" s="4">
         <v>2.264004424135321E-9</v>
       </c>
-      <c r="AF25" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -3252,18 +3153,14 @@
       <c r="AE26" s="4">
         <v>1.5097647940523628E-9</v>
       </c>
-      <c r="AF26" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -3316,15 +3213,11 @@
       <c r="AE27" s="4">
         <v>2.2640970714619508E-9</v>
       </c>
-      <c r="AF27" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -3377,15 +3270,11 @@
       <c r="AE28" s="4">
         <v>2.2640044241346241E-9</v>
       </c>
-      <c r="AF28" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -3438,15 +3327,11 @@
       <c r="AE29" s="4">
         <v>2.2640970714622759E-9</v>
       </c>
-      <c r="AF29" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -3492,15 +3377,11 @@
       <c r="AE30" s="4">
         <v>2.2640428774645053E-9</v>
       </c>
-      <c r="AF30" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AF30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -3546,15 +3427,11 @@
       <c r="AE31" s="4">
         <v>4.524378667262053E-9</v>
       </c>
-      <c r="AF31" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -3600,15 +3477,11 @@
       <c r="AE32" s="4">
         <v>2.263906974643159E-9</v>
       </c>
-      <c r="AF32" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -3645,27 +3518,23 @@
       <c r="AB33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC33" s="15">
+      <c r="AC33" s="4">
         <v>1.454486984857716E-11</v>
       </c>
-      <c r="AD33" s="9">
+      <c r="AD33" s="2">
         <v>7.140724486874398E-4</v>
       </c>
       <c r="AE33" s="4">
         <v>5.5072679217470157E-4</v>
       </c>
-      <c r="AF33" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="15">
+      <c r="AF33" s="4">
         <v>1.6276352698517457E-3</v>
       </c>
-      <c r="AH33" s="12">
+      <c r="AG33" s="12">
         <v>1.0300000000000001E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -3708,20 +3577,16 @@
       <c r="AE34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF34" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AG34" s="9" t="s">
+      <c r="AF34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -3777,15 +3642,12 @@
         <v>38</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG35" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -3846,15 +3708,11 @@
       <c r="AE36" s="4">
         <v>4.3927558082652416E-9</v>
       </c>
-      <c r="AF36" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -3918,15 +3776,11 @@
       <c r="AE37" s="4">
         <v>4.3927558082728533E-9</v>
       </c>
-      <c r="AF37" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -3951,10 +3805,10 @@
       <c r="Q38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="2">
         <v>7.0931982357622694</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="2">
         <v>21.611486875562107</v>
       </c>
       <c r="T38" s="2">
@@ -3984,24 +3838,20 @@
       <c r="AB38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC38" s="15">
+      <c r="AC38" s="4">
         <v>3.3713400047929252E-11</v>
       </c>
-      <c r="AD38" s="15">
+      <c r="AD38" s="4">
         <v>66.195054499864995</v>
       </c>
       <c r="AE38" s="4">
         <v>122.64959872194791</v>
       </c>
-      <c r="AF38" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -4056,29 +3906,25 @@
       <c r="AB39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC39" s="15">
+      <c r="AC39" s="4">
         <v>1.970789578172716E-10</v>
       </c>
-      <c r="AD39" s="15">
+      <c r="AD39" s="4">
         <v>108.90541684618404</v>
       </c>
       <c r="AE39" s="4">
         <v>181.22103425725632</v>
       </c>
-      <c r="AF39" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -4142,20 +3988,16 @@
       <c r="AE40" s="4">
         <v>4.3927558082726878E-9</v>
       </c>
-      <c r="AF40" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -4195,15 +4037,11 @@
       <c r="AE41" s="4">
         <v>4.3927558092648645E-9</v>
       </c>
-      <c r="AF41" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -4255,15 +4093,11 @@
       <c r="AE42" s="4">
         <v>4.3927558085202241E-9</v>
       </c>
-      <c r="AF42" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L43" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -4309,15 +4143,11 @@
       <c r="AE43" s="4">
         <v>4.392755809231458E-9</v>
       </c>
-      <c r="AF43" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L44" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -4363,15 +4193,11 @@
       <c r="AE44" s="4">
         <v>4.3927558094160285E-9</v>
       </c>
-      <c r="AF44" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L45" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -4417,18 +4243,14 @@
       <c r="AE45" s="4">
         <v>2.3087739807391728E-9</v>
       </c>
-      <c r="AF45" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L46" s="8">
         <v>16.627944946289063</v>
       </c>
@@ -4474,17 +4296,13 @@
       <c r="AE46" s="4">
         <v>2.3087739807113853E-9</v>
       </c>
-      <c r="AF46" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="3"/>
-      <c r="AK46" s="3"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3"/>
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L47" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -4530,15 +4348,11 @@
       <c r="AE47" s="4">
         <v>2.3087739808305952E-9</v>
       </c>
-      <c r="AF47" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AF47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L48" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -4584,15 +4398,11 @@
       <c r="AE48" s="4">
         <v>4.3927558094295661E-9</v>
       </c>
-      <c r="AF48" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L49" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -4638,15 +4448,11 @@
       <c r="AE49" s="4">
         <v>4.3927558094422269E-9</v>
       </c>
-      <c r="AF49" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L50" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -4692,15 +4498,11 @@
       <c r="AE50" s="4">
         <v>2.3087739808517161E-9</v>
       </c>
-      <c r="AF50" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L51" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -4746,15 +4548,11 @@
       <c r="AE51" s="4">
         <v>1.55098930241006E-9</v>
       </c>
-      <c r="AF51" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -4800,15 +4598,11 @@
       <c r="AE52" s="4">
         <v>1.5509893023711385E-9</v>
       </c>
-      <c r="AF52" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L53" s="1" t="s">
         <v>24</v>
       </c>
@@ -4855,15 +4649,11 @@
       <c r="AE53" s="4">
         <v>1.5509893023588294E-9</v>
       </c>
-      <c r="AF53" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -4918,15 +4708,11 @@
       <c r="AE54" s="4">
         <v>2.3087739807149781E-9</v>
       </c>
-      <c r="AF54" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
@@ -4951,10 +4737,10 @@
       <c r="R55" s="4">
         <v>6.1486760623649517E-11</v>
       </c>
-      <c r="S55" s="15">
+      <c r="S55" s="4">
         <v>0.45904024184280157</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T55" s="4">
         <v>0.85869988551546306</v>
       </c>
       <c r="U55" s="4">
@@ -4981,15 +4767,11 @@
       <c r="AE55" s="4">
         <v>4.3927558092226171E-9</v>
       </c>
-      <c r="AF55" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -5014,10 +4796,10 @@
       <c r="R56" s="4">
         <v>4.3868917418929311E-10</v>
       </c>
-      <c r="S56" s="15">
+      <c r="S56" s="4">
         <v>0.63012315189360835</v>
       </c>
-      <c r="T56" s="15">
+      <c r="T56" s="4">
         <v>1.0015575186726915</v>
       </c>
       <c r="U56" s="4">
@@ -5035,27 +4817,23 @@
       <c r="AB56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC56" s="9">
+      <c r="AC56" s="2">
         <v>2.0829333377614697E-10</v>
       </c>
-      <c r="AD56" s="9">
+      <c r="AD56" s="2">
         <v>66.195054551932131</v>
       </c>
       <c r="AE56" s="2">
         <v>70.004945047088611</v>
       </c>
-      <c r="AF56" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="2">
+      <c r="AF56" s="2">
         <v>205.96406208934195</v>
       </c>
-      <c r="AH56" s="10">
+      <c r="AG56" s="10">
         <v>268.54700000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>31</v>
       </c>
@@ -5110,15 +4888,11 @@
       <c r="AE57" s="4">
         <v>4.3927558085180677E-9</v>
       </c>
-      <c r="AF57" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P58" s="2">
         <v>5</v>
       </c>
@@ -5158,15 +4932,11 @@
       <c r="AE58" s="4">
         <v>2.3087739808257844E-9</v>
       </c>
-      <c r="AF58" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -5182,13 +4952,13 @@
       <c r="Q59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="9">
+      <c r="R59" s="2">
         <v>3.2875449546419018E-10</v>
       </c>
-      <c r="S59" s="9">
+      <c r="S59" s="2">
         <v>0.45904024294808132</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59" s="2">
         <v>0.46438083233845417</v>
       </c>
       <c r="U59" s="2">
@@ -5218,15 +4988,11 @@
       <c r="AE59" s="4">
         <v>2.3087739808564955E-9</v>
       </c>
-      <c r="AF59" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L60" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -5272,15 +5038,11 @@
       <c r="AE60" s="4">
         <v>2.3087739808558937E-9</v>
       </c>
-      <c r="AF60" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L61" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -5326,15 +5088,11 @@
       <c r="AE61" s="4">
         <v>2.3087739807357764E-9</v>
       </c>
-      <c r="AF61" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L62" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -5380,15 +5138,11 @@
       <c r="AE62" s="4">
         <v>1.5509893023952657E-9</v>
       </c>
-      <c r="AF62" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L63" s="8">
         <v>16.627944946289063</v>
       </c>
@@ -5428,15 +5182,11 @@
       <c r="AE63" s="4">
         <v>2.3087739807417399E-9</v>
       </c>
-      <c r="AF63" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L64" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -5476,15 +5226,11 @@
       <c r="AE64" s="4">
         <v>2.3087739808301333E-9</v>
       </c>
-      <c r="AF64" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -5527,15 +5273,11 @@
       <c r="AE65" s="4">
         <v>4.392755808513653E-9</v>
       </c>
-      <c r="AF65" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L66" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -5575,18 +5317,14 @@
       <c r="AE66" s="4">
         <v>2.3087739807139706E-9</v>
       </c>
-      <c r="AF66" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="s">
+      <c r="AF66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L67" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -5623,15 +5361,11 @@
       <c r="AE67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF67" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="9" t="s">
+      <c r="AF67" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L68" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -5680,15 +5414,11 @@
       <c r="AE68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF68" s="4" t="b">
-        <f t="shared" ref="AF68:AF131" si="4">AND(AE68&gt;AC68,AE68&lt;AD68)</f>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="1" t="s">
+      <c r="AF68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L69" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -5731,24 +5461,20 @@
       <c r="AB69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC69" s="15">
+      <c r="AC69" s="4">
         <v>2.7613599220002825E-10</v>
       </c>
-      <c r="AD69" s="15">
+      <c r="AD69" s="4">
         <v>3.4107807042267797E-3</v>
       </c>
       <c r="AE69" s="2">
         <v>3.9475450160860268E-3</v>
       </c>
-      <c r="AF69" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L70" s="1" t="s">
         <v>25</v>
       </c>
@@ -5801,15 +5527,11 @@
       <c r="AE70" s="2">
         <v>1.7556110728078644E-3</v>
       </c>
-      <c r="AF70" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L71" s="2" t="s">
         <v>10</v>
       </c>
@@ -5831,10 +5553,10 @@
       <c r="R71" s="4">
         <v>1.2638939689167759E-11</v>
       </c>
-      <c r="S71" s="15">
+      <c r="S71" s="4">
         <v>38.977279780102947</v>
       </c>
-      <c r="T71" s="15">
+      <c r="T71" s="4">
         <v>44.402367292788867</v>
       </c>
       <c r="U71" s="4">
@@ -5867,15 +5589,11 @@
       <c r="AE71" s="4">
         <v>2.6406312310340954E-9</v>
       </c>
-      <c r="AF71" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L72" s="2" t="s">
         <v>12</v>
       </c>
@@ -5897,10 +5615,10 @@
       <c r="R72" s="4">
         <v>6.99315266813526E-11</v>
       </c>
-      <c r="S72" s="15">
+      <c r="S72" s="4">
         <v>75.554525899762737</v>
       </c>
-      <c r="T72" s="15">
+      <c r="T72" s="4">
         <v>68.783806090649406</v>
       </c>
       <c r="U72" s="4">
@@ -5933,15 +5651,11 @@
       <c r="AE72" s="2">
         <v>5.2799739366766768E-4</v>
       </c>
-      <c r="AF72" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L73" s="2" t="s">
         <v>14</v>
       </c>
@@ -5963,10 +5677,10 @@
       <c r="R73" s="4">
         <v>1.1156844144996111E-10</v>
       </c>
-      <c r="S73" s="15">
+      <c r="S73" s="4">
         <v>100.80934479431363</v>
       </c>
-      <c r="T73" s="15">
+      <c r="T73" s="4">
         <v>148.70263606902606</v>
       </c>
       <c r="U73" s="4">
@@ -5999,15 +5713,11 @@
       <c r="AE73" s="2">
         <v>4.9519235050572248E-3</v>
       </c>
-      <c r="AF73" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L74" s="2" t="s">
         <v>16</v>
       </c>
@@ -6053,15 +5763,11 @@
       <c r="AE74" s="4">
         <v>2.6405796419571731E-9</v>
       </c>
-      <c r="AF74" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P75" s="2">
         <v>5</v>
       </c>
@@ -6071,10 +5777,10 @@
       <c r="R75" s="4">
         <v>1.1557013882598002E-11</v>
       </c>
-      <c r="S75" s="15">
+      <c r="S75" s="4">
         <v>38.97727977028616</v>
       </c>
-      <c r="T75" s="15">
+      <c r="T75" s="4">
         <v>29.86999216291877</v>
       </c>
       <c r="U75" s="4">
@@ -6101,15 +5807,11 @@
       <c r="AE75" s="2">
         <v>3.7698006800130994E-4</v>
       </c>
-      <c r="AF75" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L76" s="7" t="s">
         <v>43</v>
       </c>
@@ -6125,10 +5827,10 @@
       <c r="R76" s="4">
         <v>2.7521433636405712E-10</v>
       </c>
-      <c r="S76" s="15">
+      <c r="S76" s="4">
         <v>75.55452581694091</v>
       </c>
-      <c r="T76" s="15">
+      <c r="T76" s="4">
         <v>46.655378643686603</v>
       </c>
       <c r="U76" s="4">
@@ -6155,15 +5857,11 @@
       <c r="AE76" s="4">
         <v>2.6405884588251902E-9</v>
       </c>
-      <c r="AF76" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L77" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -6209,15 +5907,11 @@
       <c r="AE77" s="4">
         <v>2.6401441497506667E-9</v>
       </c>
-      <c r="AF77" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L78" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -6263,15 +5957,11 @@
       <c r="AE78" s="2">
         <v>3.3250176278863609E-4</v>
       </c>
-      <c r="AF78" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L79" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -6287,10 +5977,10 @@
       <c r="R79" s="4">
         <v>1.2046464682693977E-11</v>
       </c>
-      <c r="S79" s="15">
+      <c r="S79" s="4">
         <v>38.977279775164575</v>
       </c>
-      <c r="T79" s="15">
+      <c r="T79" s="4">
         <v>36.267413337859985</v>
       </c>
       <c r="U79" s="4">
@@ -6317,15 +6007,11 @@
       <c r="AE79" s="2">
         <v>2.1829513114258467E-3</v>
       </c>
-      <c r="AF79" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L80" s="8">
         <v>16.627944946289063</v>
       </c>
@@ -6371,15 +6057,11 @@
       <c r="AE80" s="4">
         <v>2.6404744124459926E-9</v>
       </c>
-      <c r="AF80" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="12:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="12:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L81" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -6395,10 +6077,10 @@
       <c r="R81" s="2">
         <v>2.7672753984917182E-10</v>
       </c>
-      <c r="S81" s="9">
+      <c r="S81" s="2">
         <v>38.97727975404888</v>
       </c>
-      <c r="T81" s="9">
+      <c r="T81" s="2">
         <v>26.317907623326231</v>
       </c>
       <c r="U81" s="2">
@@ -6428,15 +6110,11 @@
       <c r="AE81" s="4">
         <v>2.6401080955169782E-9</v>
       </c>
-      <c r="AF81" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L82" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -6482,15 +6160,11 @@
       <c r="AE82" s="4">
         <v>2.6401496646729426E-9</v>
       </c>
-      <c r="AF82" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L83" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -6536,15 +6210,11 @@
       <c r="AE83" s="4">
         <v>2.6401186200114943E-9</v>
       </c>
-      <c r="AF83" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L84" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -6590,15 +6260,11 @@
       <c r="AE84" s="4">
         <v>2.6400574667712148E-9</v>
       </c>
-      <c r="AF84" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L85" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -6644,16 +6310,12 @@
       <c r="AE85" s="2">
         <v>3.1760433816034801E-4</v>
       </c>
-      <c r="AF85" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG85" s="2">
+      <c r="AF85" s="2">
         <v>5.4360063061752867E-3</v>
       </c>
-      <c r="AH85" s="11"/>
-    </row>
-    <row r="86" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AG85" s="11"/>
+    </row>
+    <row r="86" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L86" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -6699,15 +6361,11 @@
       <c r="AE86" s="2">
         <v>9.6897385572386279E-4</v>
       </c>
-      <c r="AF86" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W87" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -6729,15 +6387,11 @@
       <c r="AE87" s="2">
         <v>1.2189383085550946E-3</v>
       </c>
-      <c r="AF87" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W88" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -6759,15 +6413,11 @@
       <c r="AE88" s="4">
         <v>2.6405218745341791E-9</v>
       </c>
-      <c r="AF88" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W89" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -6789,15 +6439,11 @@
       <c r="AE89" s="4">
         <v>2.6401767826986892E-9</v>
       </c>
-      <c r="AF89" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W90" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -6819,15 +6465,11 @@
       <c r="AE90" s="2">
         <v>3.2056879910279785E-4</v>
       </c>
-      <c r="AF90" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W91" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -6849,15 +6491,11 @@
       <c r="AE91" s="4">
         <v>2.6405384582923132E-9</v>
       </c>
-      <c r="AF91" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W92" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -6879,15 +6517,11 @@
       <c r="AE92" s="4">
         <v>2.6400795889642639E-9</v>
       </c>
-      <c r="AF92" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W93" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -6909,15 +6543,11 @@
       <c r="AE93" s="4">
         <v>2.640084385097646E-9</v>
       </c>
-      <c r="AF93" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W94" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -6939,15 +6569,11 @@
       <c r="AE94" s="2">
         <v>3.4391100745174871E-4</v>
       </c>
-      <c r="AF94" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W95" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -6969,15 +6595,11 @@
       <c r="AE95" s="4">
         <v>2.6404366368399388E-9</v>
       </c>
-      <c r="AF95" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="AF95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="12:33" x14ac:dyDescent="0.25">
       <c r="AA96" s="2">
         <v>28</v>
       </c>
@@ -6993,15 +6615,11 @@
       <c r="AE96" s="2">
         <v>3.4452187690500589E-4</v>
       </c>
-      <c r="AF96" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA97" s="2">
         <v>29</v>
       </c>
@@ -7017,15 +6635,11 @@
       <c r="AE97" s="4">
         <v>2.6404825104447293E-9</v>
       </c>
-      <c r="AF97" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA98" s="2">
         <v>30</v>
       </c>
@@ -7041,15 +6655,11 @@
       <c r="AE98" s="2">
         <v>3.7984750692580591E-4</v>
       </c>
-      <c r="AF98" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="23:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA99" s="2">
         <v>31</v>
       </c>
@@ -7065,15 +6675,11 @@
       <c r="AE99" s="2">
         <v>1.2701825165815615E-3</v>
       </c>
-      <c r="AF99" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="23:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA100" s="2" t="s">
         <v>46</v>
       </c>
@@ -7086,21 +6692,17 @@
       <c r="AE100" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF100" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG100" s="9" t="s">
+      <c r="AF100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AH100" s="13">
+      <c r="AG100" s="13">
         <v>31.945</v>
       </c>
-      <c r="AI100" s="14">
+      <c r="AH100" s="14">
         <v>31.564</v>
       </c>
     </row>
-    <row r="101" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W101" s="1" t="s">
         <v>24</v>
       </c>
@@ -7123,15 +6725,11 @@
       <c r="AE101" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF101" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG101" s="1" t="s">
+      <c r="AF101" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W102" s="2" t="s">
         <v>10</v>
       </c>
@@ -7159,15 +6757,11 @@
       <c r="AE102" s="4">
         <v>3.5233435862829192E-9</v>
       </c>
-      <c r="AF102" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W103" s="2" t="s">
         <v>12</v>
       </c>
@@ -7195,15 +6789,11 @@
       <c r="AE103" s="4">
         <v>3.8017539676308144E-2</v>
       </c>
-      <c r="AF103" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W104" s="2" t="s">
         <v>14</v>
       </c>
@@ -7231,15 +6821,11 @@
       <c r="AE104" s="4">
         <v>6.5460849358687359E-2</v>
       </c>
-      <c r="AF104" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W105" s="2" t="s">
         <v>16</v>
       </c>
@@ -7267,15 +6853,11 @@
       <c r="AE105" s="4">
         <v>3.5233435862831851E-9</v>
       </c>
-      <c r="AF105" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W106" s="2" t="s">
         <v>18</v>
       </c>
@@ -7303,15 +6885,11 @@
       <c r="AE106" s="4">
         <v>3.9005113048545974E-2</v>
       </c>
-      <c r="AF106" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA107" s="2">
         <v>6</v>
       </c>
@@ -7327,15 +6905,11 @@
       <c r="AE107" s="4">
         <v>3.5233428063906791E-9</v>
       </c>
-      <c r="AF107" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W108" s="2" t="s">
         <v>45</v>
       </c>
@@ -7357,15 +6931,11 @@
       <c r="AE108" s="4">
         <v>3.5233422470371679E-9</v>
       </c>
-      <c r="AF108" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W109" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -7387,15 +6957,11 @@
       <c r="AE109" s="4">
         <v>2.4443958045069436E-2</v>
       </c>
-      <c r="AF109" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W110" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -7417,15 +6983,11 @@
       <c r="AE110" s="4">
         <v>1.7573097922766241E-9</v>
       </c>
-      <c r="AF110" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W111" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -7447,15 +7009,11 @@
       <c r="AE111" s="4">
         <v>3.523340942789423E-9</v>
       </c>
-      <c r="AF111" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AF111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W112" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -7477,15 +7035,11 @@
       <c r="AE112" s="4">
         <v>3.5233422818780687E-9</v>
       </c>
-      <c r="AF112" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W113" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -7507,15 +7061,11 @@
       <c r="AE113" s="4">
         <v>3.5233414672364736E-9</v>
       </c>
-      <c r="AF113" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W114" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -7537,15 +7087,11 @@
       <c r="AE114" s="4">
         <v>3.523341467236534E-9</v>
       </c>
-      <c r="AF114" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W115" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -7567,15 +7113,11 @@
       <c r="AE115" s="4">
         <v>3.5233415020743998E-9</v>
       </c>
-      <c r="AF115" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W116" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -7597,15 +7139,11 @@
       <c r="AE116" s="4">
         <v>1.757309875327877E-9</v>
       </c>
-      <c r="AF116" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W117" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -7627,15 +7165,11 @@
       <c r="AE117" s="4">
         <v>1.7573099614808155E-9</v>
       </c>
-      <c r="AF117" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W118" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -7657,15 +7191,11 @@
       <c r="AE118" s="4">
         <v>1.7573099210035211E-9</v>
       </c>
-      <c r="AF118" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W119" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -7687,15 +7217,11 @@
       <c r="AE119" s="4">
         <v>3.5233409427892501E-9</v>
       </c>
-      <c r="AF119" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W120" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -7717,15 +7243,11 @@
       <c r="AE120" s="4">
         <v>3.5233422470380129E-9</v>
       </c>
-      <c r="AF120" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W121" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -7747,15 +7269,11 @@
       <c r="AE121" s="4">
         <v>2.4053032335297372E-2</v>
       </c>
-      <c r="AF121" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W122" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -7777,15 +7295,11 @@
       <c r="AE122" s="4">
         <v>3.5233428063917714E-9</v>
       </c>
-      <c r="AF122" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W123" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -7807,15 +7321,11 @@
       <c r="AE123" s="4">
         <v>3.5233422818779343E-9</v>
       </c>
-      <c r="AF123" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W124" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -7837,15 +7347,11 @@
       <c r="AE124" s="4">
         <v>3.523341502074971E-9</v>
       </c>
-      <c r="AF124" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W125" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -7867,15 +7373,11 @@
       <c r="AE125" s="4">
         <v>1.7573098783751425E-9</v>
       </c>
-      <c r="AF125" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W126" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -7897,15 +7399,11 @@
       <c r="AE126" s="4">
         <v>3.523340163073645E-9</v>
       </c>
-      <c r="AF126" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W127" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -7927,15 +7425,11 @@
       <c r="AE127" s="4">
         <v>1.7573098348817475E-9</v>
       </c>
-      <c r="AF127" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W128" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -7957,15 +7451,11 @@
       <c r="AE128" s="4">
         <v>3.5233401630736769E-9</v>
       </c>
-      <c r="AF128" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA129" s="2">
         <v>28</v>
       </c>
@@ -7981,15 +7471,11 @@
       <c r="AE129" s="4">
         <v>1.7573098379284299E-9</v>
       </c>
-      <c r="AF129" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA130" s="2">
         <v>29</v>
       </c>
@@ -8005,18 +7491,14 @@
       <c r="AE130" s="2">
         <v>1.4890809745823226E-2</v>
       </c>
-      <c r="AF130" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AG130" s="2">
+      <c r="AF130" s="2">
         <v>9.5823835669194085E-2</v>
       </c>
-      <c r="AH130" s="10">
+      <c r="AG130" s="10">
         <v>0.13013687998371631</v>
       </c>
     </row>
-    <row r="131" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA131" s="2">
         <v>30</v>
       </c>
@@ -8032,15 +7514,11 @@
       <c r="AE131" s="4">
         <v>1.7573097518610337E-9</v>
       </c>
-      <c r="AF131" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA132" s="2">
         <v>31</v>
       </c>
@@ -8056,15 +7534,11 @@
       <c r="AE132" s="4">
         <v>1.9271470531731592E-2</v>
       </c>
-      <c r="AF132" s="4" t="b">
-        <f t="shared" ref="AF132:AF195" si="5">AND(AE132&gt;AC132,AE132&lt;AD132)</f>
-        <v>1</v>
-      </c>
-      <c r="AG132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA133" s="2" t="s">
         <v>46</v>
       </c>
@@ -8077,18 +7551,14 @@
       <c r="AE133" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF133" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG133" s="9" t="s">
+      <c r="AF133" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AH133" s="2" t="s">
+      <c r="AG133" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W134" s="1" t="s">
         <v>25</v>
       </c>
@@ -8111,15 +7581,11 @@
       <c r="AE134" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF134" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG134" s="1" t="s">
+      <c r="AF134" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W135" s="2" t="s">
         <v>10</v>
       </c>
@@ -8147,15 +7613,11 @@
       <c r="AE135" s="4">
         <v>4.5248886640815415E-9</v>
       </c>
-      <c r="AF135" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W136" s="2" t="s">
         <v>12</v>
       </c>
@@ -8183,15 +7645,11 @@
       <c r="AE136" s="4">
         <v>4.5248886640816184E-9</v>
       </c>
-      <c r="AF136" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W137" s="2" t="s">
         <v>14</v>
       </c>
@@ -8219,15 +7677,11 @@
       <c r="AE137" s="4">
         <v>4.5248886640819303E-9</v>
       </c>
-      <c r="AF137" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W138" s="2" t="s">
         <v>16</v>
       </c>
@@ -8255,15 +7709,11 @@
       <c r="AE138" s="4">
         <v>0.17174425411692601</v>
       </c>
-      <c r="AF138" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W139" s="2" t="s">
         <v>18</v>
       </c>
@@ -8291,15 +7741,11 @@
       <c r="AE139" s="4">
         <v>0.16473182019812277</v>
       </c>
-      <c r="AF139" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA140" s="2">
         <v>6</v>
       </c>
@@ -8315,15 +7761,11 @@
       <c r="AE140" s="4">
         <v>2.2636177141181245E-9</v>
       </c>
-      <c r="AF140" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W141" s="2" t="s">
         <v>45</v>
       </c>
@@ -8345,15 +7787,11 @@
       <c r="AE141" s="4">
         <v>4.5248885671535844E-9</v>
       </c>
-      <c r="AF141" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W142" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -8375,15 +7813,11 @@
       <c r="AE142" s="4">
         <v>4.5248885627330791E-9</v>
       </c>
-      <c r="AF142" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W143" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -8405,15 +7839,11 @@
       <c r="AE143" s="4">
         <v>2.2636176838284587E-9</v>
       </c>
-      <c r="AF143" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W144" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -8435,15 +7865,11 @@
       <c r="AE144" s="4">
         <v>4.5248884658041806E-9</v>
       </c>
-      <c r="AF144" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W145" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -8465,15 +7891,11 @@
       <c r="AE145" s="4">
         <v>4.5248885627333065E-9</v>
       </c>
-      <c r="AF145" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W146" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -8495,15 +7917,11 @@
       <c r="AE146" s="4">
         <v>1.5092007763151257E-9</v>
       </c>
-      <c r="AF146" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W147" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -8525,15 +7943,11 @@
       <c r="AE147" s="4">
         <v>2.2636176838284711E-9</v>
       </c>
-      <c r="AF147" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W148" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -8555,15 +7969,11 @@
       <c r="AE148" s="4">
         <v>4.5248884658043204E-9</v>
       </c>
-      <c r="AF148" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W149" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -8585,15 +7995,11 @@
       <c r="AE149" s="4">
         <v>2.2636176520268867E-9</v>
       </c>
-      <c r="AF149" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W150" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -8615,15 +8021,11 @@
       <c r="AE150" s="4">
         <v>1.5092007388018244E-9</v>
       </c>
-      <c r="AF150" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W151" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -8645,15 +8047,11 @@
       <c r="AE151" s="4">
         <v>2.2636176520269074E-9</v>
       </c>
-      <c r="AF151" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W152" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -8675,15 +8073,11 @@
       <c r="AE152" s="4">
         <v>2.263617682316684E-9</v>
       </c>
-      <c r="AF152" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W153" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -8705,15 +8099,11 @@
       <c r="AE153" s="4">
         <v>2.2636177141181328E-9</v>
       </c>
-      <c r="AF153" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W154" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -8735,15 +8125,11 @@
       <c r="AE154" s="4">
         <v>2.263617714118127E-9</v>
       </c>
-      <c r="AF154" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="23:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="23:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W155" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -8765,15 +8151,11 @@
       <c r="AE155" s="4">
         <v>4.524888567153232E-9</v>
       </c>
-      <c r="AF155" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG155" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="23:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="23:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W156" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -8795,18 +8177,14 @@
       <c r="AE156" s="2">
         <v>8.467608033491969E-2</v>
       </c>
-      <c r="AF156" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG156" s="2">
+      <c r="AF156" s="2">
         <v>0.22258289419960875</v>
       </c>
-      <c r="AH156" s="10">
+      <c r="AG156" s="10">
         <v>0.26911669740175936</v>
       </c>
     </row>
-    <row r="157" spans="23:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W157" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -8828,16 +8206,12 @@
       <c r="AE157" s="4">
         <v>2.2636176823166695E-9</v>
       </c>
-      <c r="AF157" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG157" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK157" s="1"/>
-    </row>
-    <row r="158" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF157" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ157" s="1"/>
+    </row>
+    <row r="158" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W158" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -8859,15 +8233,11 @@
       <c r="AE158" s="4">
         <v>1.5092007580344826E-9</v>
       </c>
-      <c r="AF158" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG158" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W159" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -8889,15 +8259,11 @@
       <c r="AE159" s="4">
         <v>2.2636176520269008E-9</v>
       </c>
-      <c r="AF159" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="23:37" x14ac:dyDescent="0.25">
+      <c r="AF159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W160" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -8919,15 +8285,11 @@
       <c r="AE160" s="4">
         <v>4.5248884658041682E-9</v>
       </c>
-      <c r="AF160" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG160" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W161" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -8949,15 +8311,11 @@
       <c r="AE161" s="4">
         <v>1.5092007570826097E-9</v>
       </c>
-      <c r="AF161" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG161" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA162" s="2">
         <v>28</v>
       </c>
@@ -8973,15 +8331,11 @@
       <c r="AE162" s="4">
         <v>2.2636176838284819E-9</v>
       </c>
-      <c r="AF162" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA163" s="2">
         <v>29</v>
       </c>
@@ -8997,15 +8351,11 @@
       <c r="AE163" s="4">
         <v>2.2636176823166828E-9</v>
       </c>
-      <c r="AF163" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA164" s="2">
         <v>30</v>
       </c>
@@ -9021,15 +8371,11 @@
       <c r="AE164" s="4">
         <v>4.5248885671535141E-9</v>
       </c>
-      <c r="AF164" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA165" s="2">
         <v>31</v>
       </c>
@@ -9045,15 +8391,11 @@
       <c r="AE165" s="4">
         <v>4.5248885627331212E-9</v>
       </c>
-      <c r="AF165" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA166" s="2" t="s">
         <v>46</v>
       </c>
@@ -9066,18 +8408,14 @@
       <c r="AE166" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF166" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG166" s="9" t="s">
+      <c r="AF166" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AH166" s="2" t="s">
+      <c r="AG166" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W167" s="1" t="s">
         <v>26</v>
       </c>
@@ -9100,15 +8438,11 @@
       <c r="AE167" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF167" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG167" s="1" t="s">
+      <c r="AF167" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W168" s="2" t="s">
         <v>10</v>
       </c>
@@ -9136,15 +8470,11 @@
       <c r="AE168" s="4">
         <v>3.2070458520732092</v>
       </c>
-      <c r="AF168" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG168" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W169" s="2" t="s">
         <v>12</v>
       </c>
@@ -9172,15 +8502,11 @@
       <c r="AE169" s="4">
         <v>2.9609692234784775</v>
       </c>
-      <c r="AF169" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG169" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W170" s="2" t="s">
         <v>14</v>
       </c>
@@ -9208,15 +8534,11 @@
       <c r="AE170" s="4">
         <v>3.6488386911188671</v>
       </c>
-      <c r="AF170" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W171" s="2" t="s">
         <v>16</v>
       </c>
@@ -9244,15 +8566,11 @@
       <c r="AE171" s="4">
         <v>2.1677819672537906</v>
       </c>
-      <c r="AF171" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG171" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W172" s="2" t="s">
         <v>18</v>
       </c>
@@ -9280,15 +8598,11 @@
       <c r="AE172" s="4">
         <v>1.5949130592742757</v>
       </c>
-      <c r="AF172" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG172" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA173" s="2">
         <v>6</v>
       </c>
@@ -9304,15 +8618,11 @@
       <c r="AE173" s="4">
         <v>1.7368755169319323</v>
       </c>
-      <c r="AF173" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W174" s="2" t="s">
         <v>45</v>
       </c>
@@ -9334,15 +8644,11 @@
       <c r="AE174" s="4">
         <v>1.2665210152863229</v>
       </c>
-      <c r="AF174" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W175" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -9364,15 +8670,11 @@
       <c r="AE175" s="4">
         <v>1.1164236331073774</v>
       </c>
-      <c r="AF175" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W176" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -9394,15 +8696,11 @@
       <c r="AE176" s="4">
         <v>0.96604602494237102</v>
       </c>
-      <c r="AF176" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W177" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -9424,15 +8722,11 @@
       <c r="AE177" s="4">
         <v>0.70307711859199207</v>
       </c>
-      <c r="AF177" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W178" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -9454,15 +8748,11 @@
       <c r="AE178" s="4">
         <v>1.0725551430550428</v>
       </c>
-      <c r="AF178" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W179" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -9484,15 +8774,11 @@
       <c r="AE179" s="4">
         <v>1.1018431168152478</v>
       </c>
-      <c r="AF179" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W180" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -9514,15 +8800,11 @@
       <c r="AE180" s="4">
         <v>0.94235183951359847</v>
       </c>
-      <c r="AF180" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W181" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -9544,15 +8826,11 @@
       <c r="AE181" s="4">
         <v>0.7358463741521698</v>
       </c>
-      <c r="AF181" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W182" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -9574,15 +8852,11 @@
       <c r="AE182" s="4">
         <v>0.59546498194038611</v>
       </c>
-      <c r="AF182" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W183" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -9604,18 +8878,14 @@
       <c r="AE183" s="2">
         <v>0.49226758238725093</v>
       </c>
-      <c r="AF183" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG183" s="2">
+      <c r="AF183" s="2">
         <v>14.175909555537293</v>
       </c>
-      <c r="AH183" s="10">
+      <c r="AG183" s="10">
         <v>17.580078982366985</v>
       </c>
     </row>
-    <row r="184" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W184" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -9637,15 +8907,11 @@
       <c r="AE184" s="4">
         <v>0.57346347532245712</v>
       </c>
-      <c r="AF184" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W185" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -9667,15 +8933,11 @@
       <c r="AE185" s="4">
         <v>0.78722370408347297</v>
       </c>
-      <c r="AF185" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W186" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -9697,15 +8959,11 @@
       <c r="AE186" s="4">
         <v>1.5647323489765257</v>
       </c>
-      <c r="AF186" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W187" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -9727,15 +8985,11 @@
       <c r="AE187" s="4">
         <v>1.6616042969292739</v>
       </c>
-      <c r="AF187" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W188" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -9757,15 +9011,11 @@
       <c r="AE188" s="4">
         <v>1.3748966417902173</v>
       </c>
-      <c r="AF188" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W189" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -9787,15 +9037,11 @@
       <c r="AE189" s="4">
         <v>0.9247754988410084</v>
       </c>
-      <c r="AF189" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W190" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -9817,15 +9063,11 @@
       <c r="AE190" s="4">
         <v>0.82853057866010371</v>
       </c>
-      <c r="AF190" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG190" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W191" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -9847,15 +9089,11 @@
       <c r="AE191" s="4">
         <v>0.7266747181418558</v>
       </c>
-      <c r="AF191" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG191" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W192" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -9877,15 +9115,11 @@
       <c r="AE192" s="4">
         <v>0.58625398771132264</v>
       </c>
-      <c r="AF192" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG192" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W193" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -9907,15 +9141,11 @@
       <c r="AE193" s="4">
         <v>0.71613866076814614</v>
       </c>
-      <c r="AF193" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG193" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W194" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -9937,15 +9167,11 @@
       <c r="AE194" s="4">
         <v>0.64471301557045368</v>
       </c>
-      <c r="AF194" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG194" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA195" s="2">
         <v>28</v>
       </c>
@@ -9961,15 +9187,11 @@
       <c r="AE195" s="4">
         <v>0.91023486755376015</v>
       </c>
-      <c r="AF195" s="4" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG195" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA196" s="2">
         <v>29</v>
       </c>
@@ -9985,15 +9207,11 @@
       <c r="AE196" s="4">
         <v>0.81109809015840506</v>
       </c>
-      <c r="AF196" s="4" t="b">
-        <f t="shared" ref="AF196:AF231" si="6">AND(AE196&gt;AC196,AE196&lt;AD196)</f>
-        <v>1</v>
-      </c>
-      <c r="AG196" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA197" s="2">
         <v>30</v>
       </c>
@@ -10009,15 +9227,11 @@
       <c r="AE197" s="4">
         <v>1.3087555671701236</v>
       </c>
-      <c r="AF197" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AG197" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA198" s="2">
         <v>31</v>
       </c>
@@ -10033,15 +9247,11 @@
       <c r="AE198" s="4">
         <v>1.0441046782396344</v>
       </c>
-      <c r="AF198" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AG198" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA199" s="2" t="s">
         <v>46</v>
       </c>
@@ -10054,18 +9264,14 @@
       <c r="AE199" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF199" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AG199" s="9" t="s">
+      <c r="AF199" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AH199" s="2" t="s">
+      <c r="AG199" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W200" s="1" t="s">
         <v>27</v>
       </c>
@@ -10088,15 +9294,11 @@
       <c r="AE200" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF200" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG200" s="1" t="s">
+      <c r="AF200" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W201" s="2" t="s">
         <v>10</v>
       </c>
@@ -10124,15 +9326,11 @@
       <c r="AE201" s="4">
         <v>30.943510246060971</v>
       </c>
-      <c r="AF201" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG201" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W202" s="2" t="s">
         <v>12</v>
       </c>
@@ -10160,15 +9358,11 @@
       <c r="AE202" s="4">
         <v>4.3119272273433071E-9</v>
       </c>
-      <c r="AF202" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG202" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W203" s="2" t="s">
         <v>14</v>
       </c>
@@ -10196,15 +9390,11 @@
       <c r="AE203" s="4">
         <v>38.580054840805964</v>
       </c>
-      <c r="AF203" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG203" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W204" s="2" t="s">
         <v>16</v>
       </c>
@@ -10232,15 +9422,11 @@
       <c r="AE204" s="4">
         <v>4.3119272273141597E-9</v>
       </c>
-      <c r="AF204" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG204" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W205" s="2" t="s">
         <v>18</v>
       </c>
@@ -10268,15 +9454,11 @@
       <c r="AE205" s="4">
         <v>4.3119272273317191E-9</v>
       </c>
-      <c r="AF205" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG205" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA206" s="2">
         <v>6</v>
       </c>
@@ -10292,18 +9474,14 @@
       <c r="AE206" s="2">
         <v>13.991645063765963</v>
       </c>
-      <c r="AF206" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AG206" s="2">
+      <c r="AF206" s="2">
         <v>47.042442677381963</v>
       </c>
-      <c r="AH206" s="10">
+      <c r="AG206" s="10">
         <v>102.15628878175363</v>
       </c>
     </row>
-    <row r="207" spans="23:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W207" s="2" t="s">
         <v>45</v>
       </c>
@@ -10325,15 +9503,11 @@
       <c r="AE207" s="4">
         <v>2.3358708555897623E-9</v>
       </c>
-      <c r="AF207" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG207" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W208" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -10355,15 +9529,11 @@
       <c r="AE208" s="4">
         <v>4.3119272244860292E-9</v>
       </c>
-      <c r="AF208" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG208" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W209" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -10385,15 +9555,11 @@
       <c r="AE209" s="4">
         <v>4.3119272221905244E-9</v>
       </c>
-      <c r="AF209" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG209" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W210" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -10415,15 +9581,11 @@
       <c r="AE210" s="4">
         <v>1.5776330727050422E-9</v>
       </c>
-      <c r="AF210" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG210" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W211" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -10445,15 +9607,11 @@
       <c r="AE211" s="4">
         <v>4.3119272251196256E-9</v>
       </c>
-      <c r="AF211" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W212" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -10475,15 +9633,11 @@
       <c r="AE212" s="4">
         <v>4.3119272222174277E-9</v>
       </c>
-      <c r="AF212" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W213" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -10505,15 +9659,11 @@
       <c r="AE213" s="4">
         <v>2.3358708553869091E-9</v>
       </c>
-      <c r="AF213" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W214" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -10535,15 +9685,11 @@
       <c r="AE214" s="4">
         <v>2.3358708553895445E-9</v>
       </c>
-      <c r="AF214" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG214" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W215" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -10565,15 +9711,11 @@
       <c r="AE215" s="4">
         <v>2.3358708551734663E-9</v>
       </c>
-      <c r="AF215" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W216" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -10595,15 +9737,11 @@
       <c r="AE216" s="4">
         <v>1.5776330726046128E-9</v>
       </c>
-      <c r="AF216" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W217" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -10625,15 +9763,11 @@
       <c r="AE217" s="4">
         <v>1.577633072656411E-9</v>
       </c>
-      <c r="AF217" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W218" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -10655,15 +9789,11 @@
       <c r="AE218" s="4">
         <v>2.3358708553724793E-9</v>
       </c>
-      <c r="AF218" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG218" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W219" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -10685,15 +9815,11 @@
       <c r="AE219" s="4">
         <v>4.3119272250918654E-9</v>
       </c>
-      <c r="AF219" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG219" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W220" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -10715,15 +9841,11 @@
       <c r="AE220" s="4">
         <v>4.3119272244824608E-9</v>
       </c>
-      <c r="AF220" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG220" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W221" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -10745,15 +9867,11 @@
       <c r="AE221" s="4">
         <v>4.3119272244872146E-9</v>
       </c>
-      <c r="AF221" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG221" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W222" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -10775,15 +9893,11 @@
       <c r="AE222" s="4">
         <v>2.3358708555920495E-9</v>
       </c>
-      <c r="AF222" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG222" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W223" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -10805,15 +9919,11 @@
       <c r="AE223" s="4">
         <v>4.3119272221892795E-9</v>
       </c>
-      <c r="AF223" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG223" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="AF223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W224" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -10835,15 +9945,11 @@
       <c r="AE224" s="4">
         <v>2.3358708551713483E-9</v>
       </c>
-      <c r="AF224" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG224" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W225" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -10865,15 +9971,11 @@
       <c r="AE225" s="4">
         <v>1.5776330726534576E-9</v>
       </c>
-      <c r="AF225" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG225" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W226" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -10895,15 +9997,11 @@
       <c r="AE226" s="4">
         <v>2.3358708553753559E-9</v>
       </c>
-      <c r="AF226" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG226" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W227" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -10925,15 +10023,11 @@
       <c r="AE227" s="4">
         <v>2.3358708551709215E-9</v>
       </c>
-      <c r="AF227" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG227" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA228" s="2">
         <v>28</v>
       </c>
@@ -10949,15 +10043,11 @@
       <c r="AE228" s="4">
         <v>2.3358708553739922E-9</v>
       </c>
-      <c r="AF228" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA229" s="2">
         <v>29</v>
       </c>
@@ -10973,15 +10063,11 @@
       <c r="AE229" s="4">
         <v>2.3358708553866531E-9</v>
       </c>
-      <c r="AF229" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG229" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA230" s="2">
         <v>30</v>
       </c>
@@ -10997,15 +10083,11 @@
       <c r="AE230" s="4">
         <v>4.3119272251312045E-9</v>
       </c>
-      <c r="AF230" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG230" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA231" s="2">
         <v>31</v>
       </c>
@@ -11021,15 +10103,11 @@
       <c r="AE231" s="4">
         <v>2.3358708555883954E-9</v>
       </c>
-      <c r="AF231" s="4" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG231" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="AF231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA232" s="2" t="s">
         <v>46</v>
       </c>
@@ -11042,10 +10120,10 @@
       <c r="AE232" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AG232" s="9" t="s">
+      <c r="AF232" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AH232" s="2" t="s">
+      <c r="AG232" s="2" t="s">
         <v>70</v>
       </c>
     </row>
